--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf6-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf6-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.834606</v>
+        <v>7.6704545</v>
       </c>
       <c r="N2">
-        <v>13.669212</v>
+        <v>15.340909</v>
       </c>
       <c r="O2">
-        <v>0.5800266923841274</v>
+        <v>0.8278663930876066</v>
       </c>
       <c r="P2">
-        <v>0.4933860619101292</v>
+        <v>0.7913005936208135</v>
       </c>
       <c r="Q2">
-        <v>0.030259078964</v>
+        <v>0.03395965888966667</v>
       </c>
       <c r="R2">
-        <v>0.181554473784</v>
+        <v>0.203757953338</v>
       </c>
       <c r="S2">
-        <v>0.5800266923841274</v>
+        <v>0.8278663930876066</v>
       </c>
       <c r="T2">
-        <v>0.4933860619101292</v>
+        <v>0.7913005936208135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +620,10 @@
         <v>2.568891</v>
       </c>
       <c r="O3">
-        <v>0.07267062894458745</v>
+        <v>0.0924194920655273</v>
       </c>
       <c r="P3">
-        <v>0.09272334162103665</v>
+        <v>0.1325061620042962</v>
       </c>
       <c r="Q3">
         <v>0.003791112251333333</v>
@@ -641,10 +632,10 @@
         <v>0.034120010262</v>
       </c>
       <c r="S3">
-        <v>0.07267062894458745</v>
+        <v>0.0924194920655273</v>
       </c>
       <c r="T3">
-        <v>0.09272334162103665</v>
+        <v>0.1325061620042962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,217 +673,31 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2788403333333334</v>
+        <v>0.7385775</v>
       </c>
       <c r="N4">
-        <v>0.8365210000000001</v>
+        <v>1.477155</v>
       </c>
       <c r="O4">
-        <v>0.02366410532613305</v>
+        <v>0.0797141148468662</v>
       </c>
       <c r="P4">
-        <v>0.03019397181747735</v>
+        <v>0.07619324437489022</v>
       </c>
       <c r="Q4">
-        <v>0.001234519102444444</v>
+        <v>0.003269928785</v>
       </c>
       <c r="R4">
-        <v>0.011110671922</v>
+        <v>0.01961957271</v>
       </c>
       <c r="S4">
-        <v>0.02366410532613305</v>
+        <v>0.0797141148468662</v>
       </c>
       <c r="T4">
-        <v>0.03019397181747735</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.004427333333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.013282</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.8102764999999998</v>
-      </c>
-      <c r="N5">
-        <v>1.620553</v>
-      </c>
-      <c r="O5">
-        <v>0.06876504632623845</v>
-      </c>
-      <c r="P5">
-        <v>0.05849336909740264</v>
-      </c>
-      <c r="Q5">
-        <v>0.003587364157666665</v>
-      </c>
-      <c r="R5">
-        <v>0.021524184946</v>
-      </c>
-      <c r="S5">
-        <v>0.06876504632623845</v>
-      </c>
-      <c r="T5">
-        <v>0.05849336909740264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.004427333333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.013282</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>2.949111</v>
-      </c>
-      <c r="N6">
-        <v>8.847333000000001</v>
-      </c>
-      <c r="O6">
-        <v>0.2502796940750712</v>
-      </c>
-      <c r="P6">
-        <v>0.319341801654516</v>
-      </c>
-      <c r="Q6">
-        <v>0.013056697434</v>
-      </c>
-      <c r="R6">
-        <v>0.117510276906</v>
-      </c>
-      <c r="S6">
-        <v>0.2502796940750712</v>
-      </c>
-      <c r="T6">
-        <v>0.319341801654516</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.004427333333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.013282</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.05413033333333334</v>
-      </c>
-      <c r="N7">
-        <v>0.162391</v>
-      </c>
-      <c r="O7">
-        <v>0.0045938329438425</v>
-      </c>
-      <c r="P7">
-        <v>0.005861453899438226</v>
-      </c>
-      <c r="Q7">
-        <v>0.0002396530291111111</v>
-      </c>
-      <c r="R7">
-        <v>0.002156877262</v>
-      </c>
-      <c r="S7">
-        <v>0.0045938329438425</v>
-      </c>
-      <c r="T7">
-        <v>0.005861453899438226</v>
+        <v>0.07619324437489022</v>
       </c>
     </row>
   </sheetData>
